--- a/01-MULTIPHASE/xls/Fluid-pvt.xlsx
+++ b/01-MULTIPHASE/xls/Fluid-pvt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\EDFM\01-MULTIPHASE\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\res\santos\unbs\gger\er\er01\USR\bfq9\2024-PHD\EDFM\01-MULTIPHASE\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192A95FE-A7C3-4EEB-83E6-3D1F19067FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467EA60-B5CE-451F-AAE8-CC23D0AE41E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7DE34037-BF53-44CF-B0B9-74C619E7A34A}"/>
   </bookViews>
@@ -70,8 +70,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,9 +143,9 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1693,13 +1693,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.34004004E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9549999999999998E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7899999999999999E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2700000000000001E-2</c:v>
@@ -5178,7 +5178,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H3" activeCellId="1" sqref="B3:B11 H3:H11"/>
+      <selection activeCell="H6" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5245,20 +5245,19 @@
         <v>0.46630000000000005</v>
       </c>
       <c r="E4" s="3">
-        <f>+B4*0.0012+1.05</f>
+        <f t="shared" ref="E4:E11" si="0">+B4*0.0012+1.05</f>
         <v>1.0512000000000001</v>
       </c>
       <c r="F4" s="4">
-        <f xml:space="preserve"> 0.346*B4^(-0.779)</f>
+        <f t="shared" ref="F4:F11" si="1" xml:space="preserve"> 0.346*B4^(-0.779)</f>
         <v>0.34599999999999997</v>
       </c>
       <c r="G4" s="3">
-        <f>0.00000000003*B4^4-0.0000000602*B4^3+0.0000501*B4^2-0.0205*B4+4.186</f>
+        <f t="shared" ref="G4:G11" si="2">0.00000000003*B4^4-0.0000000602*B4^3+0.0000501*B4^2-0.0205*B4+4.186</f>
         <v>4.1655500398300003</v>
       </c>
       <c r="H4" s="4">
-        <f xml:space="preserve"> 0.0000000004*B4^3 + 0.0000004*B4^2 - 0.0001*B4 + 0.0235</f>
-        <v>2.34004004E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5266,28 +5265,27 @@
         <v>50</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C11" si="0">+B5*98.0665</f>
+        <f t="shared" ref="C5:C11" si="3">+B5*98.0665</f>
         <v>4903.3249999999998</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D11" si="1" xml:space="preserve"> 0.0003*B5*B5 + 0.466*B5</f>
+        <f t="shared" ref="D5:D11" si="4" xml:space="preserve"> 0.0003*B5*B5 + 0.466*B5</f>
         <v>24.05</v>
       </c>
       <c r="E5" s="3">
-        <f>+B5*0.0012+1.05</f>
+        <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="F5" s="4">
-        <f xml:space="preserve"> 0.346*B5^(-0.779)</f>
+        <f t="shared" si="1"/>
         <v>1.6427764386958327E-2</v>
       </c>
       <c r="G5" s="3">
-        <f>0.00000000003*B5^4-0.0000000602*B5^3+0.0000501*B5^2-0.0205*B5+4.186</f>
+        <f t="shared" si="2"/>
         <v>3.2789124999999997</v>
       </c>
       <c r="H5" s="4">
-        <f xml:space="preserve"> 0.0000000004*B5^3 + 0.0000004*B5^2 - 0.0001*B5 + 0.0235</f>
-        <v>1.9549999999999998E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5295,28 +5293,27 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="3"/>
+        <v>9806.65</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="4"/>
+        <v>49.6</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>9806.65</v>
-      </c>
-      <c r="D6" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>49.6</v>
-      </c>
-      <c r="E6" s="3">
-        <f>+B6*0.0012+1.05</f>
-        <v>1.17</v>
-      </c>
-      <c r="F6" s="4">
-        <f xml:space="preserve"> 0.346*B6^(-0.779)</f>
         <v>9.5736180931238236E-3</v>
       </c>
       <c r="G6" s="3">
-        <f>0.00000000003*B6^4-0.0000000602*B6^3+0.0000501*B6^2-0.0205*B6+4.186</f>
+        <f t="shared" si="2"/>
         <v>2.5797999999999996</v>
       </c>
       <c r="H6" s="4">
-        <f xml:space="preserve"> 0.0000000004*B6^3 + 0.0000004*B6^2 - 0.0001*B6 + 0.0235</f>
-        <v>1.7899999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5324,27 +5321,27 @@
         <v>200</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>19613.3</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="4"/>
+        <v>105.2</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>19613.3</v>
-      </c>
-      <c r="D7" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>105.2</v>
-      </c>
-      <c r="E7" s="3">
-        <f>+B7*0.0012+1.05</f>
-        <v>1.29</v>
-      </c>
-      <c r="F7" s="4">
-        <f xml:space="preserve"> 0.346*B7^(-0.779)</f>
         <v>5.5792231513711243E-3</v>
       </c>
       <c r="G7" s="3">
-        <f>0.00000000003*B7^4-0.0000000602*B7^3+0.0000501*B7^2-0.0205*B7+4.186</f>
+        <f t="shared" si="2"/>
         <v>1.6563999999999997</v>
       </c>
       <c r="H7" s="4">
-        <f xml:space="preserve"> 0.0000000004*B7^3 + 0.0000004*B7^2 - 0.0001*B7 + 0.0235</f>
+        <f t="shared" ref="H4:H11" si="5" xml:space="preserve"> 0.0000000004*B7^3 + 0.0000004*B7^2 - 0.0001*B7 + 0.0235</f>
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
@@ -5353,27 +5350,27 @@
         <v>300</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>29419.95</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="4"/>
+        <v>166.8</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>29419.95</v>
-      </c>
-      <c r="D8" s="2">
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>166.8</v>
-      </c>
-      <c r="E8" s="3">
-        <f>+B8*0.0012+1.05</f>
-        <v>1.4100000000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <f xml:space="preserve"> 0.346*B8^(-0.779)</f>
         <v>4.0681657707741722E-3</v>
       </c>
       <c r="G8" s="3">
-        <f>0.00000000003*B8^4-0.0000000602*B8^3+0.0000501*B8^2-0.0205*B8+4.186</f>
+        <f t="shared" si="2"/>
         <v>1.162599999999999</v>
       </c>
       <c r="H8" s="4">
-        <f xml:space="preserve"> 0.0000000004*B8^3 + 0.0000004*B8^2 - 0.0001*B8 + 0.0235</f>
+        <f t="shared" si="5"/>
         <v>4.0299999999999989E-2</v>
       </c>
     </row>
@@ -5382,27 +5379,27 @@
         <v>400</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>39226.6</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="4"/>
+        <v>234.4</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>39226.6</v>
-      </c>
-      <c r="D9" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>234.4</v>
-      </c>
-      <c r="E9" s="3">
-        <f>+B9*0.0012+1.05</f>
-        <v>1.53</v>
-      </c>
-      <c r="F9" s="4">
-        <f xml:space="preserve"> 0.346*B9^(-0.779)</f>
         <v>3.2514072182545867E-3</v>
       </c>
       <c r="G9" s="3">
-        <f>0.00000000003*B9^4-0.0000000602*B9^3+0.0000501*B9^2-0.0205*B9+4.186</f>
+        <f t="shared" si="2"/>
         <v>0.91719999999999935</v>
       </c>
       <c r="H9" s="4">
-        <f xml:space="preserve"> 0.0000000004*B9^3 + 0.0000004*B9^2 - 0.0001*B9 + 0.0235</f>
+        <f t="shared" si="5"/>
         <v>7.3099999999999998E-2</v>
       </c>
     </row>
@@ -5411,27 +5408,27 @@
         <v>500</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>49033.25</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>49033.25</v>
-      </c>
-      <c r="D10" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>308</v>
-      </c>
-      <c r="E10" s="3">
-        <f>+B10*0.0012+1.05</f>
-        <v>1.65</v>
-      </c>
-      <c r="F10" s="4">
-        <f xml:space="preserve"> 0.346*B10^(-0.779)</f>
         <v>2.7326151098567026E-3</v>
       </c>
       <c r="G10" s="3">
-        <f>0.00000000003*B10^4-0.0000000602*B10^3+0.0000501*B10^2-0.0205*B10+4.186</f>
+        <f t="shared" si="2"/>
         <v>0.81100000000000083</v>
       </c>
       <c r="H10" s="4">
-        <f xml:space="preserve"> 0.0000000004*B10^3 + 0.0000004*B10^2 - 0.0001*B10 + 0.0235</f>
+        <f t="shared" si="5"/>
         <v>0.1235</v>
       </c>
     </row>
@@ -5440,27 +5437,27 @@
         <v>600</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>58839.9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>387.6</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>58839.9</v>
-      </c>
-      <c r="D11" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>387.6</v>
-      </c>
-      <c r="E11" s="3">
-        <f>+B11*0.0012+1.05</f>
-        <v>1.77</v>
-      </c>
-      <c r="F11" s="4">
-        <f xml:space="preserve"> 0.346*B11^(-0.779)</f>
         <v>2.3708074033390661E-3</v>
       </c>
       <c r="G11" s="3">
-        <f>0.00000000003*B11^4-0.0000000602*B11^3+0.0000501*B11^2-0.0205*B11+4.186</f>
+        <f t="shared" si="2"/>
         <v>0.8067999999999973</v>
       </c>
       <c r="H11" s="4">
-        <f xml:space="preserve"> 0.0000000004*B11^3 + 0.0000004*B11^2 - 0.0001*B11 + 0.0235</f>
+        <f t="shared" si="5"/>
         <v>0.19389999999999999</v>
       </c>
     </row>
